--- a/8/1/2/Cuenta corriente 2003 a 2021 - Trimestral.xlsx
+++ b/8/1/2/Cuenta corriente 2003 a 2021 - Trimestral.xlsx
@@ -5856,81 +5856,141 @@
         <v>95</v>
       </c>
       <c r="B74">
-        <v>-1554</v>
+        <v>-1837</v>
       </c>
       <c r="C74">
-        <v>2357</v>
+        <v>2547</v>
       </c>
       <c r="D74">
-        <v>3957</v>
+        <v>4266</v>
       </c>
       <c r="E74">
-        <v>21897</v>
+        <v>22232</v>
       </c>
       <c r="F74">
-        <v>17940</v>
+        <v>17967</v>
       </c>
       <c r="G74">
-        <v>-1600</v>
+        <v>-1719</v>
       </c>
       <c r="H74">
-        <v>1590</v>
+        <v>1538</v>
       </c>
       <c r="I74">
-        <v>3190</v>
+        <v>3257</v>
       </c>
       <c r="J74">
-        <v>-3845</v>
+        <v>-4334</v>
       </c>
       <c r="K74">
-        <v>-3658</v>
+        <v>-4147</v>
       </c>
       <c r="L74">
-        <v>-3621</v>
+        <v>-4146</v>
       </c>
       <c r="M74">
-        <v>1177</v>
+        <v>1186</v>
       </c>
       <c r="N74">
-        <v>4798</v>
+        <v>5333</v>
       </c>
       <c r="O74">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="P74">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Q74">
-        <v>-637</v>
+        <v>-625</v>
       </c>
       <c r="R74">
-        <v>-58</v>
+        <v>-35</v>
       </c>
       <c r="S74">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="T74">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U74">
-        <v>-66</v>
+        <v>-49</v>
       </c>
       <c r="V74">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="W74">
-        <v>-684</v>
+        <v>-660</v>
       </c>
     </row>
     <row r="75" spans="1:23">
       <c r="A75" t="s">
         <v>96</v>
       </c>
+      <c r="B75">
+        <v>-2638</v>
+      </c>
+      <c r="C75">
+        <v>2273</v>
+      </c>
+      <c r="D75">
+        <v>4174</v>
+      </c>
       <c r="E75">
-        <v>23480</v>
+        <v>23234</v>
       </c>
       <c r="F75">
-        <v>19031</v>
+        <v>19060</v>
+      </c>
+      <c r="G75">
+        <v>-1902</v>
+      </c>
+      <c r="H75">
+        <v>1487</v>
+      </c>
+      <c r="I75">
+        <v>3389</v>
+      </c>
+      <c r="J75">
+        <v>-4922</v>
+      </c>
+      <c r="K75">
+        <v>-4735</v>
+      </c>
+      <c r="L75">
+        <v>-4227</v>
+      </c>
+      <c r="M75">
+        <v>1388</v>
+      </c>
+      <c r="N75">
+        <v>5615</v>
+      </c>
+      <c r="O75">
+        <v>-456</v>
+      </c>
+      <c r="P75">
+        <v>201</v>
+      </c>
+      <c r="Q75">
+        <v>-657</v>
+      </c>
+      <c r="R75">
+        <v>-52</v>
+      </c>
+      <c r="S75">
+        <v>147</v>
+      </c>
+      <c r="T75">
+        <v>199</v>
+      </c>
+      <c r="U75">
+        <v>11</v>
+      </c>
+      <c r="V75">
+        <v>768</v>
+      </c>
+      <c r="W75">
+        <v>-756</v>
       </c>
     </row>
   </sheetData>

--- a/8/1/2/Cuenta corriente 2003 a 2021 - Trimestral.xlsx
+++ b/8/1/2/Cuenta corriente 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Serie</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -662,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W75"/>
+  <dimension ref="A1:W76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5993,6 +5996,17 @@
         <v>-756</v>
       </c>
     </row>
+    <row r="76" spans="1:23">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76">
+        <v>23194</v>
+      </c>
+      <c r="F76">
+        <v>22505</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
